--- a/literature_research/FS_scopus/FS_agroecology.xlsx
+++ b/literature_research/FS_scopus/FS_agroecology.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,15 +656,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CLIMATE CHANGE AND FOOD SECURITY: FROM THE ONE HEALTH APPROACH TO THE HOLISTIC MODELS OF THE GLOBAL SOUTH; [Cambiamento climatico e sicurezza alimentare: dall’approccio One Health ai modelli olistici del Global South]</t>
+          <t>Autonomy and repeasantization: Conceptual, analytical, and methodological problems</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>The article analyzes the impact of climate change on food security and the right to food, exploring different regulatory models deemed to address the challenges produced by climate change in food systems, within the framework of recommendations from international institutions. The essay identifies certain integrated regulatory approaches applicable to agrifood regulation on which a widespread consensus in the scientific community and among international institutions may be appreciated. Among these are the One Health approach, the ecosystem approach, the models inspired by agroecology, and the so-called human rights-based approach (HRB). The paper discusses their effectiveness in promoting food security and climate resilience, attempting to verify the presence of regulatory provisions inspired by such approaches in existing food legislation. In such respect, the article examines the recent European “From farm to fork” strategy and certain approaches in the context of the Global South. © 2023, BioLaw Journal. All Rights Reserved.</t>
+          <t>“Autonomy,” as a desirable state, is a notion often used by food sovereignty-oriented farmer movements and scholars studying repeasantization. The term is predominantly used rather casually, relying on presumed meanings, but van der Ploeg's book The New Peasantries seeks to elaborate a particular meaning of autonomy as a characteristic feature of the peasantry. The desire of farmers/peasants for autonomy is formulated in tandem with agroecological agriculture, farmers' agency, locally “nested” markets, co-production with nature, non-commoditized production, and multiple kinds of peasant resistance. This article identifies the distinctive nature of this take on autonomy and analyses its analytical, normative, and political aspects. It develops several critiques regarding the analytical shortcomings of the notion of peasant autonomy: the methodological problem of a peasant bias; the analytical limitations and incompatibility of intrinsic and “relative” autonomy; and the neglect of accumulation from below and subtle class contradictions. Rather than centring autonomy or relative autonomy, the authors argue for shifting the focus to the nature of different types of dependency relationships, ranging from very exploitative to those vital for human flourishing. © 2021 The Authors. Journal of Agrarian Change published by John Wiley &amp; Sons Ltd.</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -692,7 +692,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Autonomy and repeasantization: Conceptual, analytical, and methodological problems</t>
+          <t>AFHVS 2021 Presidential Address: critical praxis and the social imaginary for food systems transformation</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -700,7 +700,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>“Autonomy,” as a desirable state, is a notion often used by food sovereignty-oriented farmer movements and scholars studying repeasantization. The term is predominantly used rather casually, relying on presumed meanings, but van der Ploeg's book The New Peasantries seeks to elaborate a particular meaning of autonomy as a characteristic feature of the peasantry. The desire of farmers/peasants for autonomy is formulated in tandem with agroecological agriculture, farmers' agency, locally “nested” markets, co-production with nature, non-commoditized production, and multiple kinds of peasant resistance. This article identifies the distinctive nature of this take on autonomy and analyses its analytical, normative, and political aspects. It develops several critiques regarding the analytical shortcomings of the notion of peasant autonomy: the methodological problem of a peasant bias; the analytical limitations and incompatibility of intrinsic and “relative” autonomy; and the neglect of accumulation from below and subtle class contradictions. Rather than centring autonomy or relative autonomy, the authors argue for shifting the focus to the nature of different types of dependency relationships, ranging from very exploitative to those vital for human flourishing. © 2021 The Authors. Journal of Agrarian Change published by John Wiley &amp; Sons Ltd.</t>
+          <t>In this 2021 AFHVS Presidential Address, Kim Niewolny provides a brief foray into the onto-epistemic framing of critical praxis for sustainable food systems transformation. Niewolny proposes we engage in the creative entanglement of critical praxis and the social imaginary to “unthink” the orthodoxies that govern our ideas of the possible. She offers several possibilities as pathways toward a food system that embodies health equity, ecological justice, land sovereignty, and human rights, including: (1) agroecological research and movement building; (2) food, farm, and health policy; (3) food and farm system worker protections as public health and human rights concerns; (4) intersectional food justice scholarship and curriculum; (5) narrative-led, community-based, and action-oriented methodologies as multi-dimensional inquiry; (6) and multi-sector and multi-racial coalitions as dynamic networks that challenge linear, neoliberal, and technical-rational practices. Niewolny concludes with a call for radical hope as a principle for critical food systems praxis. © 2021, The Author(s), under exclusive licence to Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -728,7 +728,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Policies and practices of central and sub-national governments for seed commons formation in Japan: will the seeds of the varieties collected and developed be shared?</t>
+          <t>Food sovereignty and property in Cuba and the United States</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -736,7 +736,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Proponents of agroecology and food sovereignty are trying to form seed commons as a framework against the formal seed systems established by governments. However, we argue that the formation of seed commons should not be considered as a dichotomy that distinguishes between the government and stakeholders, including farmers, but rather as a dichotomy that divides the scope of activities into those regulated by law and those that can be determined by farmers at their own discretion. Japan, like many other countries, is a signatory to the International Treaty on Plant Genetic Resources for Food and Agriculture and the International Union for the Protection of New Varieties of Plants, both of which contain important elements for the conservation of agricultural biodiversity and agroecology at the national and local level. Based on the proposed dichotomy, this study aims to explore the possibility of creating seed commons for seed sharing in Japan. We clarify the policies and actual conditions surrounding the access and use of seeds and explore the possibility of creating seed commons. © 2021 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Food sovereignty promotes agroecological farming methods and the reduction of food insecurity through changing political relations between people, land and food policy. Market orientations to land and private property in liberal democracies restrict access to food, and thus for food sovereigntists, reframing the social relationship to land through property is key to making food more available. This paper examines the case of usufruct land rights in Cuba as a framework for reworking land rights. We identify key limitations that impair producer autonomy, suggesting how different orientations toward property present unique problems and potential solutions towards the goal of food sovereignty. © 2021 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -764,7 +764,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Let’s Reclaim Our Food Sovereignty and Reject the Industrial Food System!</t>
+          <t>Market dependency as prohibitive of agroecology and food sovereignty—a case study of the agrarian transition in the Scottish highlands</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -772,7 +772,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>African food systems are a rich and varied tapestry of production systems, crops, seed, territorial markets, cultures, biodiversity and ecologies. As the UN Food Systems Summit worked to retrench the many pathologies that have systematically eroded African food systems, African civil society organizations mobilized to push back. In the African regional people’s countermobilization, participatory dialogues opened space for continent-wide articulations of a future built on peoples’ choices and control of natural resources, territorially-embedded solutions, the human rights of all, family farming, and peasant agroecology. © 2021, Society for International Development.</t>
+          <t>While there have been calls amongst the more ‘political’ or ‘radical’ agroecology and food sovereignty advocates for a break from capitalist food systems, conceptualisations of capitalism, and thus counter-capitalism, vary widely. The movements have largely presented small-scale producers and peasants as alternatives to industrial food systems, and have focused on reducing input dependency as a path towards autonomy of producers and the realisation of agroecological food systems. An alternative to this approach is presented here through applying Ellen M. Wood’s conceptualisation of capitalism as characterised by ‘market dependency’ to the case of the agrarian transition in the Scottish Highlands. This article demonstrates the specific ways in which market dependency, including for agricultural outputs, not just inputs, leads to a divergence from agroecological food systems. It argues that identifying ‘market dependency’ as a defining characteristic of capitalism could strengthen and refine the focus of agroecology and food sovereignty movements. © 2021 by the author. Licensee MDPI, Basel, Switzerland.</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -800,15 +800,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AFHVS 2021 Presidential Address: critical praxis and the social imaginary for food systems transformation</t>
+          <t>Achieving Food System Resilience Requires Challenging Dominant Land Property Regimes</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>In this 2021 AFHVS Presidential Address, Kim Niewolny provides a brief foray into the onto-epistemic framing of critical praxis for sustainable food systems transformation. Niewolny proposes we engage in the creative entanglement of critical praxis and the social imaginary to “unthink” the orthodoxies that govern our ideas of the possible. She offers several possibilities as pathways toward a food system that embodies health equity, ecological justice, land sovereignty, and human rights, including: (1) agroecological research and movement building; (2) food, farm, and health policy; (3) food and farm system worker protections as public health and human rights concerns; (4) intersectional food justice scholarship and curriculum; (5) narrative-led, community-based, and action-oriented methodologies as multi-dimensional inquiry; (6) and multi-sector and multi-racial coalitions as dynamic networks that challenge linear, neoliberal, and technical-rational practices. Niewolny concludes with a call for radical hope as a principle for critical food systems praxis. © 2021, The Author(s), under exclusive licence to Springer Nature B.V.</t>
+          <t>Although evidence continues to indicate an urgent need to transition food systems away from industrialized monocultures and toward agroecological production, there is little sign of significant policy commitment toward food system transformation in global North geographies. The authors, a consortium of researchers studying the land-food nexus in global North geographies, argue that a key lock-in explaining the lack of reform arises from how most food system interventions work through dominant logics of property to achieve their goals of agroecological production. Doing so fails to recognize how land tenure systems, codified by law and performed by society, construct agricultural land use outcomes. In this perspective, the authors argue that achieving food system “resilience” requires urgent attention to the underlying property norms that drive land access regimes, especially where norms of property appear hegemonic. This paper first reviews research from political ecology, critical property law, and human geography to show how entrenched property relations in the global North frustrate the advancement of alternative models like food sovereignty and agroecology, and work to mediate acceptable forms of “sustainable agriculture.” Drawing on emerging cases of land tenure reform from the authors' collective experience working in Scotland, France, Australia, Canada, and Japan, we next observe how contesting dominant logics of property creates space to forge deep and equitable food system transformation. Equally, these cases demonstrate how powerful actors in the food system attempt to leverage legal and cultural norms of property to legitimize their control over the resources that drive agricultural production. Our formulation suggests that visions for food system “resilience” must embrace the reform of property relations as much as it does diversified farming practices. This work calls for a joint cultural and legal reimagination of our relation to land in places where property functions as an epistemic and apex entitlement. © Copyright © 2021 Calo, McKee, Perrin, Gasselin, McGreevy, Sippel, Desmarais, Shields, Baysse-Lainé, Magnan, Beingessner and Kobayashi.</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -836,7 +836,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>China and the UN Food System Summit: Silenced Disputes and Ambivalence on Food Safety, Sovereignty, Justice, and Resilience</t>
+          <t>Impact evaluation based on benefit indicators (IEBBI): methodological proposal for agroecological farmers’ markets; [Evaluación del impacto basada en indicadores de beneficios (IEBBI): propuesta metodológica para mercados de productores agroecológicos]</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -844,7 +844,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>China is a major agricultural power. It dramatically reduced hunger and increased its role in many forums for international governance. However, the Chinese government and society neither played a prominent role in the UNFSS nor in its critique. This article exposes how tensions and ambivalence about agroecology and food sovereignty in China create silences in these discussions, and addressing them within China can also resolve the global tensions that marked the UNFSS as a whole. © 2021, Society for International Development.</t>
+          <t>Farmers’ markets represent a growing strategy for the generation of food sovereignty and sustainability; however, little is known about their impacts in economic, social and environmental terms. The objective of this research was to develop a framework that would allow determining that impact. The resulting methodological framework includes 20 indicators divided into seven groups: proximity, profitability, perceived benefits, areas of opportunity, economic impact, social impact, and environmental impact. This methodology was applied in one agroecological farmers’ market in Mexico City. Among the results, the main benefits are linked to socioeconomic interaction, while environmental impact indicators are the least considered. This methodology can guide the design, implementation, comparison, and monitoring of this type of initiative in the medium and long term. © 2021 Universidade de Brasilia. All rights reserved.</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -872,15 +872,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Food sovereignty and property in Cuba and the United States</t>
+          <t>The methodological strategies of agroecological research and the values with which they are linked</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Food sovereignty promotes agroecological farming methods and the reduction of food insecurity through changing political relations between people, land and food policy. Market orientations to land and private property in liberal democracies restrict access to food, and thus for food sovereigntists, reframing the social relationship to land through property is key to making food more available. This paper examines the case of usufruct land rights in Cuba as a framework for reworking land rights. We identify key limitations that impair producer autonomy, suggesting how different orientations toward property present unique problems and potential solutions towards the goal of food sovereignty. © 2021 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>The characteristic features of some of the methodological strategies adopted in scientific research in agroecology are discussed. They reflect that agroecology, as an approach to scientific research, is inextricably entangled with the other strands of agroecology (farming practice, social movement, political project); and that adopting agroecological strategies, and upholding the values of environmental sustainability, food sovereignty, social justice and democratic participation, mutually reinforce each other. After outlining the kinds of questions that agroecological research addresses so that it can produce knowledge that informs agroecological farming practices and the long term aspiration of agroecological movements to create an alternative agricultural/food system, and then making summary remarks about methodological strategies in general, three characteristic features of some agroecological strategies are introduced and discussed. The paper concludes with comments on the value of agroecological research. © 2021 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -908,15 +908,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Market dependency as prohibitive of agroecology and food sovereignty—a case study of the agrarian transition in the Scottish highlands</t>
+          <t>Beyond sustainability in food systems: Perspectives from agroecology and social innovation</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>While there have been calls amongst the more ‘political’ or ‘radical’ agroecology and food sovereignty advocates for a break from capitalist food systems, conceptualisations of capitalism, and thus counter-capitalism, vary widely. The movements have largely presented small-scale producers and peasants as alternatives to industrial food systems, and have focused on reducing input dependency as a path towards autonomy of producers and the realisation of agroecological food systems. An alternative to this approach is presented here through applying Ellen M. Wood’s conceptualisation of capitalism as characterised by ‘market dependency’ to the case of the agrarian transition in the Scottish Highlands. This article demonstrates the specific ways in which market dependency, including for agricultural outputs, not just inputs, leads to a divergence from agroecological food systems. It argues that identifying ‘market dependency’ as a defining characteristic of capitalism could strengthen and refine the focus of agroecology and food sovereignty movements. © 2021 by the author. Licensee MDPI, Basel, Switzerland.</t>
+          <t>Food security faces many multifaceted challenges, with effects ranging far beyond the sectors of agriculture and food science and involving all the multiscale components of sustainability. This paper puts forward our point of view about more sustainable and responsible approaches to food production research underlying the importance of knowledge and social innovation in agroecological practices. Increased demand for food worldwide and the diversification of food choices would suggest the adoption of highly productive, but low-resilient and unsustainable food production models. However, new perspectives are possible. These include the revitalization and valorization of family-based traditional agriculture and the promotion of diversified farming systems as a social and economic basis to foster social-ecological conversion. Additionally, they encompass the forecasting of the Participatory Guarantee Systems (PGS) and the drafting of a new agenda for food sovereignty. Thanks to a desk analysis, the study describes and discusses these perspectives, their trajectories and action research implications. The results suggest the need to adopt a more inclusive and systemic approach to the described problems, as the solutions require the promotion of responsibility within decision makers, professionals and consumers. This appears essential for reading, analyzing and understanding the complex ecological-functional, social and economic relations that characterize farming systems, as well as mobilizing local communities. © 2020 by the authors.</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -944,7 +944,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Achieving Food System Resilience Requires Challenging Dominant Land Property Regimes</t>
+          <t>Pampean agroecologies. Instituting eco-logics of local food production; [Agroecologías pampeanas. Eco-lógicas instituyentes de producción local de alimentos]</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -952,7 +952,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Although evidence continues to indicate an urgent need to transition food systems away from industrialized monocultures and toward agroecological production, there is little sign of significant policy commitment toward food system transformation in global North geographies. The authors, a consortium of researchers studying the land-food nexus in global North geographies, argue that a key lock-in explaining the lack of reform arises from how most food system interventions work through dominant logics of property to achieve their goals of agroecological production. Doing so fails to recognize how land tenure systems, codified by law and performed by society, construct agricultural land use outcomes. In this perspective, the authors argue that achieving food system “resilience” requires urgent attention to the underlying property norms that drive land access regimes, especially where norms of property appear hegemonic. This paper first reviews research from political ecology, critical property law, and human geography to show how entrenched property relations in the global North frustrate the advancement of alternative models like food sovereignty and agroecology, and work to mediate acceptable forms of “sustainable agriculture.” Drawing on emerging cases of land tenure reform from the authors' collective experience working in Scotland, France, Australia, Canada, and Japan, we next observe how contesting dominant logics of property creates space to forge deep and equitable food system transformation. Equally, these cases demonstrate how powerful actors in the food system attempt to leverage legal and cultural norms of property to legitimize their control over the resources that drive agricultural production. Our formulation suggests that visions for food system “resilience” must embrace the reform of property relations as much as it does diversified farming practices. This work calls for a joint cultural and legal reimagination of our relation to land in places where property functions as an epistemic and apex entitlement. © Copyright © 2021 Calo, McKee, Perrin, Gasselin, McGreevy, Sippel, Desmarais, Shields, Baysse-Lainé, Magnan, Beingessner and Kobayashi.</t>
+          <t>In this paper we explore the anthropological question about “how” agroecology is produced, which will enable us to move from the inquiry into agroecology, in the singular and as a normative framework, towards agroecological practices, in the plural and anchored in the daily activities of people. We will put in the foreground the experiences of our interlocutors to characterize the ways of create and reproduce rural life and work in four establishments in the Pampas region of the province of Córdoba, Argentina, trying to mark the variability between them, as well as to extract some premises that constitute the logic that organizes and structures its production practices. It was identified that they operate an agro-eco-logic that puts the relations between species and entities in the primary activity at the center and allows to show a co-production of food. That network of relationships is a condition of possibility so that they can resist and exist, to create ways of living and working on the margins of agribusiness hegemony. Finally, we will reflect on the relationships that are established between agroecology and agribusiness. © 2021</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -980,7 +980,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Impact evaluation based on benefit indicators (IEBBI): methodological proposal for agroecological farmers’ markets; [Evaluación del impacto basada en indicadores de beneficios (IEBBI): propuesta metodológica para mercados de productores agroecológicos]</t>
+          <t>Opportunities and barriers in diversified farming and the use of agroecological principles in the Global North–The experiences of Danish biodynamic farmers</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -988,7 +988,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Farmers’ markets represent a growing strategy for the generation of food sovereignty and sustainability; however, little is known about their impacts in economic, social and environmental terms. The objective of this research was to develop a framework that would allow determining that impact. The resulting methodological framework includes 20 indicators divided into seven groups: proximity, profitability, perceived benefits, areas of opportunity, economic impact, social impact, and environmental impact. This methodology was applied in one agroecological farmers’ market in Mexico City. Among the results, the main benefits are linked to socioeconomic interaction, while environmental impact indicators are the least considered. This methodology can guide the design, implementation, comparison, and monitoring of this type of initiative in the medium and long term. © 2021 Universidade de Brasilia. All rights reserved.</t>
+          <t>Diversification through agroecological principles may maintain and stabilize yields in an increasingly more unpredictable climate, including market price fluctuations, as well as preserve and enhance the threatened natural resource base and the environment. Based on a participatory interview process this article identifies the barriers encountered by a group of Danish biodynamic farmers striving for self-sufficient farm systems with no or very little dependency on imported materials by developing biologically, economically and socially diverse farms. Through an iterative interview process the study found that barriers outside farm management are hindering the transition toward diverse farming and that a further exploration of the need for and implications of food sovereignty in the Global North might generate the discussions needed to support implementation of more agroecological farming system practises. © 2020 The Author(s). Published with license by Taylor &amp; Francis Group, LLC.</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1016,15 +1016,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>The methodological strategies of agroecological research and the values with which they are linked</t>
+          <t>Transition to agroecology for improved food security and better living conditions: case study from a family farm in Pinar del Río, Cuba</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>The characteristic features of some of the methodological strategies adopted in scientific research in agroecology are discussed. They reflect that agroecology, as an approach to scientific research, is inextricably entangled with the other strands of agroecology (farming practice, social movement, political project); and that adopting agroecological strategies, and upholding the values of environmental sustainability, food sovereignty, social justice and democratic participation, mutually reinforce each other. After outlining the kinds of questions that agroecological research addresses so that it can produce knowledge that informs agroecological farming practices and the long term aspiration of agroecological movements to create an alternative agricultural/food system, and then making summary remarks about methodological strategies in general, three characteristic features of some agroecological strategies are introduced and discussed. The paper concludes with comments on the value of agroecological research. © 2021 Elsevier Ltd</t>
+          <t>The process of transition to agroecology of family farms is a topic of great importance in Cuba and the need to support family farming is gaining worldwide attention, while agroecology has been recognized as the most promising approach for the sustainable development of smallholder farmers. This work analyzes the process of agroecological conversion implemented by a family farm in western Cuba, highlighting the causes that enabled the process of transition and examining its effects on the family’s food security and livelihoods. The study shows how all the four aspects of food security–availability, access, stability, and utilization–have improved after the transition to agroecology, while positive impacts are also registered in soil quality, environmental sustainability, and resilience. From the point of view of economic sustainability, the transition has had high costs at the beginning but, after three years, agroecological production is resulting in increased income and better living conditions. The work also suggests actions to be implemented in order to advance in the process of transition to agroecology and hence achieve full food sovereignty. © 2020 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Beyond sustainability in food systems: Perspectives from agroecology and social innovation</t>
+          <t>Policy pitfalls and the attempt to institutionalize agroecology in El Salvador 2008-2018</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Food security faces many multifaceted challenges, with effects ranging far beyond the sectors of agriculture and food science and involving all the multiscale components of sustainability. This paper puts forward our point of view about more sustainable and responsible approaches to food production research underlying the importance of knowledge and social innovation in agroecological practices. Increased demand for food worldwide and the diversification of food choices would suggest the adoption of highly productive, but low-resilient and unsustainable food production models. However, new perspectives are possible. These include the revitalization and valorization of family-based traditional agriculture and the promotion of diversified farming systems as a social and economic basis to foster social-ecological conversion. Additionally, they encompass the forecasting of the Participatory Guarantee Systems (PGS) and the drafting of a new agenda for food sovereignty. Thanks to a desk analysis, the study describes and discusses these perspectives, their trajectories and action research implications. The results suggest the need to adopt a more inclusive and systemic approach to the described problems, as the solutions require the promotion of responsibility within decision makers, professionals and consumers. This appears essential for reading, analyzing and understanding the complex ecological-functional, social and economic relations that characterize farming systems, as well as mobilizing local communities. © 2020 by the authors.</t>
+          <t>This paper analyzes the experience of the Salvadoran cooperative movement in pursuing a political project for the institutionalization of agroecology in the years 2008–2018, under two consecutive FMLN governments in 2009 and 2014. Following El Salvador’s “turn to the left”, Salvadoran agrarian reform cooperatives and civil society allies began to allocate organizational resources toward writing public policy measures to incorporate agroecology under the FMLN government’s agricultural social program, the Family Agriculture Plan (PAF). While the cooperative sector took part in active negotiations with the FMLN party for the institutionalization of favorable policies, the former guerrilla party formulized strategies for gaining a multiclass electorate in order to remain in power. With the intention to better understand the attitude and distinct Salvadoran actors, we utilize an anthropology of public policy framework to indicate how expectations of political party legitimacy failed to shape the institutionalization of agroecology in El Salvador. We suggest that the pursuit of agroecological policies is a balancing act of making use of the State to strengthen on the ground efforts without forging organizational disarticulation following changes in government administrations. © 2020, © 2020 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1088,15 +1088,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pampean agroecologies. Instituting eco-logics of local food production; [Agroecologías pampeanas. Eco-lógicas instituyentes de producción local de alimentos]</t>
+          <t>Alternative discourses around the governance of food security: A case study from Ethiopia</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>In this paper we explore the anthropological question about “how” agroecology is produced, which will enable us to move from the inquiry into agroecology, in the singular and as a normative framework, towards agroecological practices, in the plural and anchored in the daily activities of people. We will put in the foreground the experiences of our interlocutors to characterize the ways of create and reproduce rural life and work in four establishments in the Pampas region of the province of Córdoba, Argentina, trying to mark the variability between them, as well as to extract some premises that constitute the logic that organizes and structures its production practices. It was identified that they operate an agro-eco-logic that puts the relations between species and entities in the primary activity at the center and allows to show a co-production of food. That network of relationships is a condition of possibility so that they can resist and exist, to create ways of living and working on the margins of agribusiness hegemony. Finally, we will reflect on the relationships that are established between agroecology and agribusiness. © 2021</t>
+          <t>Global discourses on the governance of food security span competing approaches. For example, a neoliberal approach advocates commercialized, industrial agriculture, while food sovereignty and resilience are part of an alternative discourse to food security that prioritizes locally-based agroecological food production. Understanding how global discourses play out locally and how they impact the environment and biodiversity is important to identify appropriate pathways towards sustainability. In addition to their effects on food security, different approaches could reinforce or impede the success of biodiversity conservation because of the strong interdependence of food security and ecosystems. We applied the Q-methodology to examine alternative approaches to food security and biodiversity conservation pursued by 50 stakeholders from local to national levels in southwestern Ethiopia. We identified four distinct approaches, focusing on (1) smallholder commercialization, (2) agroecology and resilience, (3) local economy and equity, and (4) market liberalization. All approaches prioritized smallholders, but perspectives on how to achieve food security varied. Agricultural intensification, commercialization, and profit were widely considered important, while support for agroecology and resilience was largely restricted to non-government organizations. With the exception of supporters of the agroecology and resilience approach, biodiversity conservation was considered as a secondary goal. We conclude it is important to acknowledge plurality of food security approaches because local conditions are characterized by a multiplicity of stakeholder interests, and because food security is a complex problem that requires a multidimensional approach. However, major contradictions among existing approaches need to be reconciled, and the agroecology and resilience approach should be strengthened to ensure the sustainable achievement of food security and biodiversity conservation. © 2019 Elsevier B.V.</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1124,15 +1124,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Opportunities and barriers in diversified farming and the use of agroecological principles in the Global North–The experiences of Danish biodynamic farmers</t>
+          <t>Interview with João Pedro Stédile, national leader of the MST–Brazil</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Diversification through agroecological principles may maintain and stabilize yields in an increasingly more unpredictable climate, including market price fluctuations, as well as preserve and enhance the threatened natural resource base and the environment. Based on a participatory interview process this article identifies the barriers encountered by a group of Danish biodynamic farmers striving for self-sufficient farm systems with no or very little dependency on imported materials by developing biologically, economically and socially diverse farms. Through an iterative interview process the study found that barriers outside farm management are hindering the transition toward diverse farming and that a further exploration of the need for and implications of food sovereignty in the Global North might generate the discussions needed to support implementation of more agroecological farming system practises. © 2020 The Author(s). Published with license by Taylor &amp; Francis Group, LLC.</t>
+          <t>The pandemic has underlined the need to continue fighting for paradigmatic change, including toward food sovereignty for our people and agroecology to produce while preserving nature. © 2020, © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1160,15 +1160,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transition to agroecology for improved food security and better living conditions: case study from a family farm in Pinar del Río, Cuba</t>
+          <t>Agroecologies of displacement: a study of land access, dislocation, and migration in relation to sustainable food production in the Beach Flats Community Garden</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>The process of transition to agroecology of family farms is a topic of great importance in Cuba and the need to support family farming is gaining worldwide attention, while agroecology has been recognized as the most promising approach for the sustainable development of smallholder farmers. This work analyzes the process of agroecological conversion implemented by a family farm in western Cuba, highlighting the causes that enabled the process of transition and examining its effects on the family’s food security and livelihoods. The study shows how all the four aspects of food security–availability, access, stability, and utilization–have improved after the transition to agroecology, while positive impacts are also registered in soil quality, environmental sustainability, and resilience. From the point of view of economic sustainability, the transition has had high costs at the beginning but, after three years, agroecological production is resulting in increased income and better living conditions. The work also suggests actions to be implemented in order to advance in the process of transition to agroecology and hence achieve full food sovereignty. © 2020 Taylor &amp; Francis.</t>
+          <t>In this article, the Beach Flats Community Garden is used as a case study to theorize an “agroecologies of displacement.” We argue that farmers are increasingly less singularly place-based through involuntary displacement and that displacement and dispossession can shape agricultural practices in farming communities. We follow Cohen (2010), Kerssen and Brent (2017), and others in calling for the necessity to bring a historical and focused analysis of displacement, dispossession, and the dynamics of land under capitalist systems to our understanding of the articulations of food movements, in particular transformative agroecologies. © 2018, © 2018 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1196,15 +1196,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Policy pitfalls and the attempt to institutionalize agroecology in El Salvador 2008-2018</t>
+          <t>Agroecology and food sovereignty</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>This paper analyzes the experience of the Salvadoran cooperative movement in pursuing a political project for the institutionalization of agroecology in the years 2008–2018, under two consecutive FMLN governments in 2009 and 2014. Following El Salvador’s “turn to the left”, Salvadoran agrarian reform cooperatives and civil society allies began to allocate organizational resources toward writing public policy measures to incorporate agroecology under the FMLN government’s agricultural social program, the Family Agriculture Plan (PAF). While the cooperative sector took part in active negotiations with the FMLN party for the institutionalization of favorable policies, the former guerrilla party formulized strategies for gaining a multiclass electorate in order to remain in power. With the intention to better understand the attitude and distinct Salvadoran actors, we utilize an anthropology of public policy framework to indicate how expectations of political party legitimacy failed to shape the institutionalization of agroecology in El Salvador. We suggest that the pursuit of agroecological policies is a balancing act of making use of the State to strengthen on the ground efforts without forging organizational disarticulation following changes in government administrations. © 2020, © 2020 Taylor &amp; Francis.</t>
+          <t>We propose that agroecology provides a framework for understanding ‘levels’ for the transition to sustainable food systems. If we agree that agroecology includes social and political dimensions of governing territorial food systems, then it must be linked to movements for food sovereignty. However, the concentration of power in food and farming systems locks in industrial logic, posing immense barriers to agroecological and social transition. This creates a tension between efforts at convergence of food system innovations from below, versus co-optation of grass-roots language and practices by private and public actors who are committed not to changing the logic of industrial agriculture, but instead to reducing its harm. We suggest agroecological and food sovereignty movements consciously embrace this tension as a dance of creativity and appropriation. If this dance can be made generative rather than deadly, it can open pathways for transition to new ways of seeing, experiencing, and getting food. © 2019 The Authors. IDS Bulletin and Institute of Development Studies.</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1232,15 +1232,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Alternative discourses around the governance of food security: A case study from Ethiopia</t>
+          <t>African Green Revolution, food sovereignty and constrained livelihood choice in Mozambique</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Global discourses on the governance of food security span competing approaches. For example, a neoliberal approach advocates commercialized, industrial agriculture, while food sovereignty and resilience are part of an alternative discourse to food security that prioritizes locally-based agroecological food production. Understanding how global discourses play out locally and how they impact the environment and biodiversity is important to identify appropriate pathways towards sustainability. In addition to their effects on food security, different approaches could reinforce or impede the success of biodiversity conservation because of the strong interdependence of food security and ecosystems. We applied the Q-methodology to examine alternative approaches to food security and biodiversity conservation pursued by 50 stakeholders from local to national levels in southwestern Ethiopia. We identified four distinct approaches, focusing on (1) smallholder commercialization, (2) agroecology and resilience, (3) local economy and equity, and (4) market liberalization. All approaches prioritized smallholders, but perspectives on how to achieve food security varied. Agricultural intensification, commercialization, and profit were widely considered important, while support for agroecology and resilience was largely restricted to non-government organizations. With the exception of supporters of the agroecology and resilience approach, biodiversity conservation was considered as a secondary goal. We conclude it is important to acknowledge plurality of food security approaches because local conditions are characterized by a multiplicity of stakeholder interests, and because food security is a complex problem that requires a multidimensional approach. However, major contradictions among existing approaches need to be reconciled, and the agroecology and resilience approach should be strengthened to ensure the sustainable achievement of food security and biodiversity conservation. © 2019 Elsevier B.V.</t>
+          <t>This article examines the complicated food security agendas of the African Green Revolution and the food sovereignty models in Mozambique. Drawing on fieldwork conducted by the author in Mozambique in 2014 and 2015, the paper analyses how smallholder farmers engage with these two agrarian models. Whereas the literature frequently presents the African Green Revolution and the food sovereignty in oppositional frames, this paper finds that farmers in Mozambique utilize some of the tools that these models offer in complementary rather than competing ways. One such area is the use of commercial hybrid seeds and herbicides by some farmers associated with food sovereignty, an approach that runs counter to food sovereignty’s principles of agroecology. In Mozambique, farmers’ “lived experience” of food sovereignty is more a strategic response to their limited livelihood options, using whatever tools are available to them, rather than a resistance to power. © 2018, © 2018 Canadian Association of African Studies.</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1268,15 +1268,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Interview with João Pedro Stédile, national leader of the MST–Brazil</t>
+          <t>Complex systems, agroecological matrices, and management of forest resources: An example of an application in Los Tuxtlas, Veracruz, Mexico</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>The pandemic has underlined the need to continue fighting for paradigmatic change, including toward food sovereignty for our people and agroecology to produce while preserving nature. © 2020, © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Today humanity faces several complex problems, two of which are global warming and the loss of biological diversity. An agroecological matrix approach, conceives the territory as patches of natural and cultivated vegetation, interconnected to maintain watershed integrity. Many ethnic groups maintain a high biological heterogeneity as in the case of the agrological matrix. This study analyzed features and trends in a specific agroecological matrix, integrating local and scientific knowledge with environmental and social information, as a complex system. For the last 15 years we studied agroecological spaces used by the Ntaj'uy (Zoque-Popoluca) people in Los Tuxtlas, Veracruz, Mexico. Participatory methods were used to understand social interactions and land management decisions. Ecology field methods allowed us to assess soil loss, litter production, water quality, and vegetation structure. Soil erosion, vegetation fragmentation and social marginalization are the most important problems in the region; the tropical sub-evergreen forest has decreased by about 60%, the deciduous forest is down by 80%, and cultivated pastures have increased over 400%. Coffee and milpa agroecosystems could be improved, through product diversification, along with interconnectivity among vegetation patches, to prevent environmental degradation, and improve conditions to reach food sovereignty and income diversification, in a context of Ntaj'uy self-determination in their territories. © 2018 by the authors.</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1304,15 +1304,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Agroecologies of displacement: a study of land access, dislocation, and migration in relation to sustainable food production in the Beach Flats Community Garden</t>
+          <t>The intersection of food security and biodiversity conservation: a review</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>In this article, the Beach Flats Community Garden is used as a case study to theorize an “agroecologies of displacement.” We argue that farmers are increasingly less singularly place-based through involuntary displacement and that displacement and dispossession can shape agricultural practices in farming communities. We follow Cohen (2010), Kerssen and Brent (2017), and others in calling for the necessity to bring a historical and focused analysis of displacement, dispossession, and the dynamics of land under capitalist systems to our understanding of the articulations of food movements, in particular transformative agroecologies. © 2018, © 2018 Taylor &amp; Francis.</t>
+          <t>Food security and biodiversity conservation are key challenges of the twenty-first century. While traditionally these two challenges were addressed separately, recently, papers have begun to specifically address the nexus of food security and biodiversity conservation. We conducted a structured literature review of 91 papers addressing this nexus. To ascertain how a given paper approached the topic, we assessed to what extent it covered 68 potentially relevant issues. The resulting dataset was analyzed using cluster analysis. Two main branches of literature, containing a total of six clusters of papers, were identified. The “biophysical-technical” branch (clusters: “sustainable intensification” and “production focus”) was dominated by the natural sciences, focused strongly on the production aspect of food security, and sought general solutions. In contrast, the “social-political” branch (clusters: “social-ecological development”; “empowerment for food security”; “agroecology and food sovereignty”; and “social-ecological systems”) often drew on the social sciences and emphasized social relations and governance, alongside broader considerations of sustainability and human well-being. While the biophysical-technical branch was often global in focus, much of the social-political branch focused on specific localities. Two clusters of papers, one from each branch, stood out as being particularly broad in scope—namely the clusters on “sustainable intensification” and “agroecology and food sovereignty.” Despite major differences in their conceptual basis, we argue that exchange between these two research clusters could be particularly helpful in generating insights on the food–biodiversity nexus that are both generally applicable and sufficiently nuanced to capture key system-specific variables. © 2015, Springer-Verlag Berlin Heidelberg.</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1340,15 +1340,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Can the state take agroecology to scale? Public policy experiences in agroecological territorialization from Latin America</t>
+          <t>Agroecology in the Brazilian government agenda: Developments between 2011 and 2014; [La agroecología en la agenda del gobierno Brasileño: Desarrollos entre 2011 y 2014]</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>In this article we use a food sovereignty frame to analyze the role of the State in favoring agroecological scaling, particularly in Cuba and in the Latin American countries that elected leftist governments in the first years of the 21st century and currently face an upsurge of right-wing political forces. As with social movement participation in international governance structures, at the national level social movements face risks when they allow themselves to become absorbed in collaborations with the State in order to build public policy for taking agroecology to scale. By participating in the institutionalization of agroecology, movements become part of the established rules of the game, having to move within limits defined by a system that exists to preserve the interests of the dominant class. On the other hand, by boycotting the arena of governance, agroecological movements allow resurgent political and economic elites to grab land, territories and resources needed for agroecological food systems to ever become a global substitute for industrial agriculture. At the heart of the matter is the political character of agroecology: shall we continue betting on reform, in times of (counter) revolution?. © 2019, © 2019 Taylor &amp; Francis Group, LLC.</t>
+          <t>Since 2003, in Brazil, the agroecological perspective has been present in punctual public policies of the federal government. In 2012, with a convergent action of the agroecological movement and the organic production, the National Policy for Agroecology and Organic Production was created. This article presents a reconstruction of the process, while highlighting involved actors, as well as their demands and interests, ideas, and main forums. Despite its limitations and conflicts, the Pnapo is a benchmark and a political achievement, having insured the agroecological agenda in the public policies inter-related to rural development, food sovereignty, and the human right to adequate food. © 2017, Pontificia Universidad Javeriana. All rights reserved.</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1376,15 +1376,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Agroecology and food sovereignty</t>
+          <t>Agroecology in Uruguay</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>We propose that agroecology provides a framework for understanding ‘levels’ for the transition to sustainable food systems. If we agree that agroecology includes social and political dimensions of governing territorial food systems, then it must be linked to movements for food sovereignty. However, the concentration of power in food and farming systems locks in industrial logic, posing immense barriers to agroecological and social transition. This creates a tension between efforts at convergence of food system innovations from below, versus co-optation of grass-roots language and practices by private and public actors who are committed not to changing the logic of industrial agriculture, but instead to reducing its harm. We suggest agroecological and food sovereignty movements consciously embrace this tension as a dance of creativity and appropriation. If this dance can be made generative rather than deadly, it can open pathways for transition to new ways of seeing, experiencing, and getting food. © 2019 The Authors. IDS Bulletin and Institute of Development Studies.</t>
+          <t>From its origins, agroecology in Uruguay has been considered as a critique of the dominant industrial agriculture model and linked to the development of alternative thinking from multiple actors. It aims to strengthen the ecological processes in agricultural systems while discussing the phenomena of concentration, alienation, and access to land, along with the problems of family agriculture and food sovereignty. Against the deepening of the industrialized model of agriculture, different actors drive the development of a National Agroecology Plan. An agroecological transition process is proposed by building sustainable development options, which arises from the agrarian and extends to the whole society. © 2017 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>African Green Revolution, food sovereignty and constrained livelihood choice in Mozambique</t>
+          <t>Is Oil Palm Expansion a Challenge to Agroecology? Smallholders Practising Industrial Farming in Mexico</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>This article examines the complicated food security agendas of the African Green Revolution and the food sovereignty models in Mozambique. Drawing on fieldwork conducted by the author in Mozambique in 2014 and 2015, the paper analyses how smallholder farmers engage with these two agrarian models. Whereas the literature frequently presents the African Green Revolution and the food sovereignty in oppositional frames, this paper finds that farmers in Mozambique utilize some of the tools that these models offer in complementary rather than competing ways. One such area is the use of commercial hybrid seeds and herbicides by some farmers associated with food sovereignty, an approach that runs counter to food sovereignty’s principles of agroecology. In Mozambique, farmers’ “lived experience” of food sovereignty is more a strategic response to their limited livelihood options, using whatever tools are available to them, rather than a resistance to power. © 2018, © 2018 Canadian Association of African Studies.</t>
+          <t>Agroecology has become a powerful alternative paradigm for rural development. In contrast to conventional approaches, this paradigm shifts the emphasis from technology and markets to local knowledge, social justice and food sovereignty, to overcome rural poverty and environmental degradation. However, the spread of this approach faces several obstacles. This paper deals with one of these obstacles: the ‘preference’ of smallholders for industrial farming. We specifically analyse the widespread uptake up of oil palm by smallholders in Chiapas. Contrary to agro-ecological assumptions, oil palm proved favourable to smallholders in Chiapas because of historical and contemporary state–peasant relations and the advantageous economic circumstances within the oil palm sector. Based on this research, we identify four challenges for agroecology: (i) the existence of contradictory interests within the peasantry as a result of social differentiation; (ii) the role of the state in making conventional development models relatively favourable to smallholders; (iii) the prevalence of modernization ideologies in many rural areas; and (iv) the need for this paradigm to acknowledge smallholders' agency also when engaged in industrial farming. These challenges need to be tackled for agroecology to offer viable alternatives in a context of agro-industrialization. © 2016 John Wiley &amp; Sons Ltd</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1448,15 +1448,15 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Communication as Resistance in Food Politics</t>
+          <t>European transitions towards a corporate-environmental food regime: Agroecological incorporation or contestation?</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>The global food system is a site of domination and resistance for those opposed to the conventional model of industrial agriculture. This article applies a political economy of communication lens to the relations of power that operate in the field of food politics where tensions involving food security, peak oil, and anthropogenic climate change present major challenges. At the heart of this trilemma social movements of small-scale farmers contest the dominant narratives that biotechnology, development, and free trade will feed the world. This article describes how farmers’ movements in Brazil, Chile, and Cuba apply resistive epistemologies in to complement for agroecological production methods. The purpose is to develop political consciousness among rural food producers and workers who are subjugated under neo-liberalism. The article also presents the challenges that members of the international farmers’ movement, La Vìa Campesina, face in advancing their political influence through participation in invited spaces such as the UN Food and Agriculture Organisation’s World Committee for Food Security. © The Author 2018</t>
+          <t>The 'food regime' concept helps to analyse potential transitions beyond the agro-industrial regime which has been globally dominant since the 1970s. As its multiple crises generate alternative production methods and products, some have been incorporated into a nascent 'corporate-environmental food regime'. This nascent regime is illustrated here by two agendas prominent in Europe - 'bioeconomy' (Life Sciences) and 'sustainable intensification' (neoproductivism). As a significant difference, the prevalent 'bioeconomy' agenda marginalises agroecological practices, while 'sustainable intensification' selectively incorporates such practices within a broader toolkit including biotech. Regardless of that difference, both agendas reinforce a neoliberal productivist narrative: namely, more resource-efficient methods are necessary for increasing production to fulfill the greater market demand for food, feed, fuel, etc. In this way, the capital-accumulation driver is reified as 'market demand' arising exogenously from the food production system - which thereby accommodates societal needs. By contrast, the agroecology narrative diagnoses the problem as profit-driven agro-industrial monoculture systems making farmers dependent on external inputs, undermining their knowledge, and distancing consumers from agri-producers. Through such a narrative, new alliances have elaborated a different future linking farmers' knowledge-exchange, agroecology, food sovereignty, citizens' initiatives, public knowledge about food production, etc. Civil society organisations have facilitated such linkages among researchers, scientists and social movements. In those ways, contending narratives justify different trajectories for an agro-food transition. Each links different innovation paradigms of technique, quality and knowledge. These differences often remain implicit amidst broad terms such as bioeconomy, sustainable intensification, agroecology, etc. Making the divergences explicit can help contest transitions towards a corporate-environmental food regime, while also counterposing agroecological alternatives. © 2015 Elsevier Ltd.</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1484,15 +1484,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Complex systems, agroecological matrices, and management of forest resources: An example of an application in Los Tuxtlas, Veracruz, Mexico</t>
+          <t>Deconstructing homegardens: food security and sovereignty in northern Nicaragua</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Today humanity faces several complex problems, two of which are global warming and the loss of biological diversity. An agroecological matrix approach, conceives the territory as patches of natural and cultivated vegetation, interconnected to maintain watershed integrity. Many ethnic groups maintain a high biological heterogeneity as in the case of the agrological matrix. This study analyzed features and trends in a specific agroecological matrix, integrating local and scientific knowledge with environmental and social information, as a complex system. For the last 15 years we studied agroecological spaces used by the Ntaj'uy (Zoque-Popoluca) people in Los Tuxtlas, Veracruz, Mexico. Participatory methods were used to understand social interactions and land management decisions. Ecology field methods allowed us to assess soil loss, litter production, water quality, and vegetation structure. Soil erosion, vegetation fragmentation and social marginalization are the most important problems in the region; the tropical sub-evergreen forest has decreased by about 60%, the deciduous forest is down by 80%, and cultivated pastures have increased over 400%. Coffee and milpa agroecosystems could be improved, through product diversification, along with interconnectivity among vegetation patches, to prevent environmental degradation, and improve conditions to reach food sovereignty and income diversification, in a context of Ntaj'uy self-determination in their territories. © 2018 by the authors.</t>
+          <t>Development scholars and practitioners are promoting food security, food sovereignty, and the localization of food systems to prepare for the projected negative impacts of climate change. The implementation of biodiverse homegardens is often seen as a way not only to localize food production but also as a strategy in alignment with a food sovereignty agenda. While much scholarship has characterized and critiqued food security and sovereignty conceptualizations, relatively little research has examined people’s lived experiences in order to test how such theoretical visions play out on the ground in farming communities. Based on a case study of four coffee cooperatives in northern Nicaragua, we examine a non-governmental organization (NGO)-supported project promoting food security and sovereignty through development of homegardens. We ask: To what extent are homegardens an effective strategy to reach food sovereignty? And, why may farmers be resistant to changing their food production and consumption strategies to embrace biodiverse homegardens when they improve food security? We discuss characteristics of agroecological homegardens, the distinctions between food security, food sovereignty and dominant discourses of development, the history of food sovereignty in Nicaragua, and farmer perspectives on homegarden implementation. Despite historic critiques, NGOs are poised to facilitate the transformation of food and agricultural development by employing counter development strategies, a necessary step if homegardens are to be successful in the long term. To conclude, we propose some strategies NGOs and communities might pursue to move forward with homegardens as a food sovereignty strategy. This research suggests that a food sovereignty approach still rooted in mainstream development models faces significant obstacles to moving beyond food security and into a farmer-led food sovereignty agenda. © 2015, Springer Science+Business Media Dordrecht.</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1520,15 +1520,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>The intersection of food security and biodiversity conservation: a review</t>
+          <t>Does the Arab region have an agrarian question?</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Food security and biodiversity conservation are key challenges of the twenty-first century. While traditionally these two challenges were addressed separately, recently, papers have begun to specifically address the nexus of food security and biodiversity conservation. We conducted a structured literature review of 91 papers addressing this nexus. To ascertain how a given paper approached the topic, we assessed to what extent it covered 68 potentially relevant issues. The resulting dataset was analyzed using cluster analysis. Two main branches of literature, containing a total of six clusters of papers, were identified. The “biophysical-technical” branch (clusters: “sustainable intensification” and “production focus”) was dominated by the natural sciences, focused strongly on the production aspect of food security, and sought general solutions. In contrast, the “social-political” branch (clusters: “social-ecological development”; “empowerment for food security”; “agroecology and food sovereignty”; and “social-ecological systems”) often drew on the social sciences and emphasized social relations and governance, alongside broader considerations of sustainability and human well-being. While the biophysical-technical branch was often global in focus, much of the social-political branch focused on specific localities. Two clusters of papers, one from each branch, stood out as being particularly broad in scope—namely the clusters on “sustainable intensification” and “agroecology and food sovereignty.” Despite major differences in their conceptual basis, we argue that exchange between these two research clusters could be particularly helpful in generating insights on the food–biodiversity nexus that are both generally applicable and sufficiently nuanced to capture key system-specific variables. © 2015, Springer-Verlag Berlin Heidelberg.</t>
+          <t>Discussion on food sovereignty and agro-ecology, and Anglophone rural sociology have blind spots when it comes to the Middle East/North African (Arab) region. This article explores them; outlines some initial concepts, discusses avenues for research, and notes some socio-political features of the region which make it distinct from others. It focuses on the necessity to include war and the national question to understand the regional agrarian question and advances and retreats in regional knowledge production. It proceeds by (1) establishing the relative absence of the region from the leading peasant studies journals; (2) synthesizing the region’s political economy and waves of knowledge production; (3) highlighting local traditions which speak to the questions of food sovereignty and agro-ecology; and (4) listing a series of theoretical, historical, and analytical avenues which remain to be addressed. © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1556,15 +1556,15 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Agroecology in the Brazilian government agenda: Developments between 2011 and 2014; [La agroecología en la agenda del gobierno Brasileño: Desarrollos entre 2011 y 2014]</t>
+          <t>Who is resilient in Africa's Green Revolution? Sustainable intensification and Climate Smart Agriculture in Rwanda</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Since 2003, in Brazil, the agroecological perspective has been present in punctual public policies of the federal government. In 2012, with a convergent action of the agroecological movement and the organic production, the National Policy for Agroecology and Organic Production was created. This article presents a reconstruction of the process, while highlighting involved actors, as well as their demands and interests, ideas, and main forums. Despite its limitations and conflicts, the Pnapo is a benchmark and a political achievement, having insured the agroecological agenda in the public policies inter-related to rural development, food sovereignty, and the human right to adequate food. © 2017, Pontificia Universidad Javeriana. All rights reserved.</t>
+          <t>Under the banner of a “New Green Revolution for Africa,” agricultural intensification programs aim to make smallholder agriculture more productive as well as "climate smart". As with Green Revolutions in Asia and Mexico, agricultural innovations (hybrid seeds, agronomic engineering, market linkages,and increased use of fertilizer and pesticides) are promoted as essential catalysts of agriculture-led economic growth. Intensification programs are now frequently linked to Climate Smart Agriculture (CSA), which attempts to build resilience and reduce greenhouse gas emissions while increasing crop yields. This article considers who and what is resilient in Africa's Green Revolution. We report on a multi-season study of smallholder food producers' experiences with Rwanda's Crop Intensification Program (CIP) and related policies that aim to commercialize subsistence agriculture while implementing CSA. We suggest that there are fundamental limits to the climate resilience afforded by CSA and development efforts rooted in Green Revolution thinking. Our findings illustrate that such efforts foreground technology and management adjustments in ways that have reduced smallholder resilience by inhibiting sovereignty over land use, decreasing livelihood flexibility, and constricting resource access. We put forth that rural development policies could better promote climate-resilient livelihoods through: 1) adaptive governance that enables smallholder land use decision-making; 2) support for smallholder food producers’ existing agro-ecological strategies of intensification; 3) participatory approaches to visualize and correct for inequalities in local processes of social-ecological resilence Such considerations are paramount for meeting the United Nations Sustainable Development Goals and building climate-resilient food systems. © 2020 The Authors</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1592,15 +1592,15 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Agroecology in Uruguay</t>
+          <t>Agro-ecological transition of agricultural production systems at imbabura province of Ecuador; [Transição agroecológica de sistemas de produção agrícola na província de imbabura Equador]; [Transición agroecológica de los sistemas de producción agrícola de la provincia de imbabura Ecuador]</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>From its origins, agroecology in Uruguay has been considered as a critique of the dominant industrial agriculture model and linked to the development of alternative thinking from multiple actors. It aims to strengthen the ecological processes in agricultural systems while discussing the phenomena of concentration, alienation, and access to land, along with the problems of family agriculture and food sovereignty. Against the deepening of the industrialized model of agriculture, different actors drive the development of a National Agroecology Plan. An agroecological transition process is proposed by building sustainable development options, which arises from the agrarian and extends to the whole society. © 2017 Taylor &amp; Francis.</t>
+          <t>Transitional processes from conventional agricultural systems to agro ecological production systems has been promoted at Imbabura province in Ecuador, but development difficulties have been observed, due to farmer’s decisions for embracing transition, depends not only on the technology and local resources available, but also on several aspects of the surrounding social, economic and institutional system. A research was conducted, in order to characterize the transitional agro ecological degree of production systems at Imbabura province, regarding the social cooperation activity, the natural resources management and the public policies dynamics, A stratified random sample of 50 producers was taken, to whom a questionnaire was applied. Data was analyzed by descriptive statistics. Cramer test was used to determine the relationships of each item to municipalities. Results showed that, in social dynamics, there is a high degree of trust, participation and reciprocity but it is necessary to strengthen exchange networks, also, it was observed a high degree of agro ecological and conservationist practices. Agro ecological transition is limited by public policy dynamics because there are no incentive programs and also there are few institutional incentives to support agro ecological work, even though it is established by the current Food sovereignty law. Participation and used of self-harvest seeds were related to municipality. Otavalo is the municipality that displays greater dynamism and progress in the process of agro-ecological transition. © 2020, Universidad del Zulia. All rights reserved.</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Is Oil Palm Expansion a Challenge to Agroecology? Smallholders Practising Industrial Farming in Mexico</t>
+          <t>Delinking, food sovereignty, and populist agronomy: notes on an intellectual history of the peasant path in the global South; [Déconnexion, souveraineté alimentaire, et agronomie populiste: notes sur une histoire intellectuelle du parcours paysan dans le Sud]</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Agroecology has become a powerful alternative paradigm for rural development. In contrast to conventional approaches, this paradigm shifts the emphasis from technology and markets to local knowledge, social justice and food sovereignty, to overcome rural poverty and environmental degradation. However, the spread of this approach faces several obstacles. This paper deals with one of these obstacles: the ‘preference’ of smallholders for industrial farming. We specifically analyse the widespread uptake up of oil palm by smallholders in Chiapas. Contrary to agro-ecological assumptions, oil palm proved favourable to smallholders in Chiapas because of historical and contemporary state–peasant relations and the advantageous economic circumstances within the oil palm sector. Based on this research, we identify four challenges for agroecology: (i) the existence of contradictory interests within the peasantry as a result of social differentiation; (ii) the role of the state in making conventional development models relatively favourable to smallholders; (iii) the prevalence of modernization ideologies in many rural areas; and (iv) the need for this paradigm to acknowledge smallholders' agency also when engaged in industrial farming. These challenges need to be tackled for agroecology to offer viable alternatives in a context of agro-industrialization. © 2016 John Wiley &amp; Sons Ltd</t>
+          <t>The article examines the weakness of discourses around food sovereignty in Southwest Asia and North Africa, and examines some older currents resembling the food sovereignty discourse. The author first historically situates the emergence of food sovereignty. He discusses agro-ecology–the ‘technics’ (or social embeddedness of technology) of food sovereignty–and its national-popular content, before then developing elements of the delinking paradigm. He goes on to discuss Tunisian national-popular and Third Worldist agronomists’ and economists’ efforts to develop technics and frameworks for food sovereignty in the 1970s and 1980s. The article compares the food sovereignty paradigm with auto-centred, self-reliant development proposals, and the proposals of the Tunisian economists and agronomists. © 2018 ROAPE Publications Ltd.</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1664,15 +1664,15 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>European transitions towards a corporate-environmental food regime: Agroecological incorporation or contestation?</t>
+          <t>Social change for sustainable localised food sovereignty: Convergence between prosumers and ethical entrepreneurs*</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>The 'food regime' concept helps to analyse potential transitions beyond the agro-industrial regime which has been globally dominant since the 1970s. As its multiple crises generate alternative production methods and products, some have been incorporated into a nascent 'corporate-environmental food regime'. This nascent regime is illustrated here by two agendas prominent in Europe - 'bioeconomy' (Life Sciences) and 'sustainable intensification' (neoproductivism). As a significant difference, the prevalent 'bioeconomy' agenda marginalises agroecological practices, while 'sustainable intensification' selectively incorporates such practices within a broader toolkit including biotech. Regardless of that difference, both agendas reinforce a neoliberal productivist narrative: namely, more resource-efficient methods are necessary for increasing production to fulfill the greater market demand for food, feed, fuel, etc. In this way, the capital-accumulation driver is reified as 'market demand' arising exogenously from the food production system - which thereby accommodates societal needs. By contrast, the agroecology narrative diagnoses the problem as profit-driven agro-industrial monoculture systems making farmers dependent on external inputs, undermining their knowledge, and distancing consumers from agri-producers. Through such a narrative, new alliances have elaborated a different future linking farmers' knowledge-exchange, agroecology, food sovereignty, citizens' initiatives, public knowledge about food production, etc. Civil society organisations have facilitated such linkages among researchers, scientists and social movements. In those ways, contending narratives justify different trajectories for an agro-food transition. Each links different innovation paradigms of technique, quality and knowledge. These differences often remain implicit amidst broad terms such as bioeconomy, sustainable intensification, agroecology, etc. Making the divergences explicit can help contest transitions towards a corporate-environmental food regime, while also counterposing agroecological alternatives. © 2015 Elsevier Ltd.</t>
+          <t>Some resourceful community-driven initiatives for local food production and retail have recently appeared in Luxembourg, where low organic agricultural rates are paradoxically paired with high consumer demands. This niche of social innovators combines agro-ecology with circular economy practices. Four cases of alternative food networks are presented here – studied with qualitative interviews and participant observation. One was established in the 1980s and has about 200 employees, partly linked to social assistance. The more recent and smaller initiatives are characterised by cooperative governance, a community-supported agricultural outlook, hands-on workshops and time banks, all enabled by social media. These initiatives are more radical in their agro-ecological or permaculture practices, focusing on regenerative land use without relying on imports and fostering the integration of consumers with varying degrees of prosumer involvement. This politicised step goes further than mere (and possibly industrialised) organic production. It represents a cultural shift in the food system by attracting media and policy interest, diverting attention away from individuals and focusing instead on the collective efforts that are necessary to build a more resilient food system. Copyright © FrancoAngeli</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1700,15 +1700,15 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Deconstructing homegardens: food security and sovereignty in northern Nicaragua</t>
+          <t>Building sustainable social and solidarity economies: Place-based and network-based strategies of alternative development organizations in India</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Development scholars and practitioners are promoting food security, food sovereignty, and the localization of food systems to prepare for the projected negative impacts of climate change. The implementation of biodiverse homegardens is often seen as a way not only to localize food production but also as a strategy in alignment with a food sovereignty agenda. While much scholarship has characterized and critiqued food security and sovereignty conceptualizations, relatively little research has examined people’s lived experiences in order to test how such theoretical visions play out on the ground in farming communities. Based on a case study of four coffee cooperatives in northern Nicaragua, we examine a non-governmental organization (NGO)-supported project promoting food security and sovereignty through development of homegardens. We ask: To what extent are homegardens an effective strategy to reach food sovereignty? And, why may farmers be resistant to changing their food production and consumption strategies to embrace biodiverse homegardens when they improve food security? We discuss characteristics of agroecological homegardens, the distinctions between food security, food sovereignty and dominant discourses of development, the history of food sovereignty in Nicaragua, and farmer perspectives on homegarden implementation. Despite historic critiques, NGOs are poised to facilitate the transformation of food and agricultural development by employing counter development strategies, a necessary step if homegardens are to be successful in the long term. To conclude, we propose some strategies NGOs and communities might pursue to move forward with homegardens as a food sovereignty strategy. This research suggests that a food sovereignty approach still rooted in mainstream development models faces significant obstacles to moving beyond food security and into a farmer-led food sovereignty agenda. © 2015, Springer Science+Business Media Dordrecht.</t>
+          <t>This article critically examines and analyzes place-based as well as network-based strategies of alternative development organizations that claim to be building sustainable social and solidarity economies (SSE) in the political context of neoliberal globalization. While the Indian state and market forces are actively promoting the neoliberal agri-food system, alternative development organizations are working with farmers to build the SSE based on the principles of democracy, inclusiveness, reciprocity, cooperativism, and socioecological sustainability. Using a case study approach, this article analyzes how SSE initiatives are aiming to reclaim control over the local agri-food sector. Specifically, this article examines how community development organizations mobilize farmers based on the principles of agro-ecology and the politics of seed and food sovereignties. This article uses the Center for Sustainable Agriculture, an alternative community development organization in south India, as a case study. © 2017 Community Development Society.</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1725,6 +1725,42 @@
         </is>
       </c>
       <c r="H36" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Food sovereignty and agro-ecology in Karnataka: interplay of discourses, identities, and practices</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Karnataka Rajya Raitha Sangha (KRRS), a farmers’ movement, and a member of La Via Campesina, has been encouraging zero-budget natural farming in Karnataka, India, within the framework of food sovereignty and agro-ecology. Using the experiences of KRRS, this article addresses the question of the extent of pluralism within the discourse of food sovereignty. Focusing on the interplay of local and global practices, discourses and identities, the article throws light upon contradictions and negotiations between “necessary abstractions” and “particularisms”, spaces and places of resistance and implications it may have on struggles at both local and global levels. © 2017 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
         <is>
           <t>_</t>
         </is>
